--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3977,28 +3977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3311.131547679506</v>
+        <v>3456.849075197617</v>
       </c>
       <c r="AB2" t="n">
-        <v>4530.436260349658</v>
+        <v>4729.813410103556</v>
       </c>
       <c r="AC2" t="n">
-        <v>4098.057782168942</v>
+        <v>4278.406656577908</v>
       </c>
       <c r="AD2" t="n">
-        <v>3311131.547679506</v>
+        <v>3456849.075197617</v>
       </c>
       <c r="AE2" t="n">
-        <v>4530436.260349658</v>
+        <v>4729813.410103556</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.234000283595461e-07</v>
+        <v>1.222943640303083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4098057.782168942</v>
+        <v>4278406.656577908</v>
       </c>
     </row>
     <row r="3">
@@ -4083,28 +4083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1568.86593611359</v>
+        <v>1662.596293954817</v>
       </c>
       <c r="AB3" t="n">
-        <v>2146.591587270873</v>
+        <v>2274.837597960787</v>
       </c>
       <c r="AC3" t="n">
-        <v>1941.723898941954</v>
+        <v>2057.730290366031</v>
       </c>
       <c r="AD3" t="n">
-        <v>1568865.93611359</v>
+        <v>1662596.293954817</v>
       </c>
       <c r="AE3" t="n">
-        <v>2146591.587270873</v>
+        <v>2274837.597960787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.140466100466166e-06</v>
+        <v>1.928014528433423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.76692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1941723.898941954</v>
+        <v>2057730.290366031</v>
       </c>
     </row>
     <row r="4">
@@ -4189,28 +4189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1272.128250133867</v>
+        <v>1355.444123770514</v>
       </c>
       <c r="AB4" t="n">
-        <v>1740.581994170637</v>
+        <v>1854.578448117229</v>
       </c>
       <c r="AC4" t="n">
-        <v>1574.463291569163</v>
+        <v>1677.580083946119</v>
       </c>
       <c r="AD4" t="n">
-        <v>1272128.250133867</v>
+        <v>1355444.123770514</v>
       </c>
       <c r="AE4" t="n">
-        <v>1740581.994170637</v>
+        <v>1854578.448117229</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300122017928069e-06</v>
+        <v>2.197920778422875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.58376736111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1574463.291569163</v>
+        <v>1677580.08394612</v>
       </c>
     </row>
     <row r="5">
@@ -4295,28 +4295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1139.657588803668</v>
+        <v>1222.888121585743</v>
       </c>
       <c r="AB5" t="n">
-        <v>1559.329791145544</v>
+        <v>1673.209477969938</v>
       </c>
       <c r="AC5" t="n">
-        <v>1410.50954441172</v>
+        <v>1513.520713756737</v>
       </c>
       <c r="AD5" t="n">
-        <v>1139657.588803668</v>
+        <v>1222888.121585743</v>
       </c>
       <c r="AE5" t="n">
-        <v>1559329.791145544</v>
+        <v>1673209.477969937</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387139161246486e-06</v>
+        <v>2.345027576662739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.60720486111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1410509.54441172</v>
+        <v>1513520.713756738</v>
       </c>
     </row>
     <row r="6">
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1071.651760910291</v>
+        <v>1144.467898996337</v>
       </c>
       <c r="AB6" t="n">
-        <v>1466.281217216443</v>
+        <v>1565.911469767062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1326.341395783919</v>
+        <v>1416.463076863044</v>
       </c>
       <c r="AD6" t="n">
-        <v>1071651.760910291</v>
+        <v>1144467.898996337</v>
       </c>
       <c r="AE6" t="n">
-        <v>1466281.217216443</v>
+        <v>1565911.469767062</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439330774030816e-06</v>
+        <v>2.433260087624204e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.07769097222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1326341.395783919</v>
+        <v>1416463.076863044</v>
       </c>
     </row>
     <row r="7">
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1011.312970958876</v>
+        <v>1084.214360390942</v>
       </c>
       <c r="AB7" t="n">
-        <v>1383.723022845375</v>
+        <v>1483.469920048643</v>
       </c>
       <c r="AC7" t="n">
-        <v>1251.662439612472</v>
+        <v>1341.889632942309</v>
       </c>
       <c r="AD7" t="n">
-        <v>1011312.970958876</v>
+        <v>1084214.360390942</v>
       </c>
       <c r="AE7" t="n">
-        <v>1383723.022845375</v>
+        <v>1483469.920048643</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475556795068955e-06</v>
+        <v>2.494501973586723e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.73046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1251662.439612472</v>
+        <v>1341889.632942309</v>
       </c>
     </row>
     <row r="8">
@@ -4613,28 +4613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>972.4399802043715</v>
+        <v>1045.170777435845</v>
       </c>
       <c r="AB8" t="n">
-        <v>1330.535281939746</v>
+        <v>1430.048767368166</v>
       </c>
       <c r="AC8" t="n">
-        <v>1203.550862049412</v>
+        <v>1293.566920096598</v>
       </c>
       <c r="AD8" t="n">
-        <v>972439.9802043715</v>
+        <v>1045170.777435845</v>
       </c>
       <c r="AE8" t="n">
-        <v>1330535.281939746</v>
+        <v>1430048.767368166</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.503566605149991e-06</v>
+        <v>2.541853947269082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.47439236111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1203550.862049412</v>
+        <v>1293566.920096598</v>
       </c>
     </row>
     <row r="9">
@@ -4719,28 +4719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>941.2247603771456</v>
+        <v>1013.955557608619</v>
       </c>
       <c r="AB9" t="n">
-        <v>1287.825241053829</v>
+        <v>1387.338726482249</v>
       </c>
       <c r="AC9" t="n">
-        <v>1164.917007521728</v>
+        <v>1254.933065568915</v>
       </c>
       <c r="AD9" t="n">
-        <v>941224.7603771456</v>
+        <v>1013955.557608619</v>
       </c>
       <c r="AE9" t="n">
-        <v>1287825.241053829</v>
+        <v>1387338.726482249</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.524013766509147e-06</v>
+        <v>2.576420888057205e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.29427083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1164917.007521729</v>
+        <v>1254933.065568915</v>
       </c>
     </row>
     <row r="10">
@@ -4825,28 +4825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>910.5864660387903</v>
+        <v>973.0734607748265</v>
       </c>
       <c r="AB10" t="n">
-        <v>1245.904575073941</v>
+        <v>1331.402038003433</v>
       </c>
       <c r="AC10" t="n">
-        <v>1126.997191066937</v>
+        <v>1204.334896130881</v>
       </c>
       <c r="AD10" t="n">
-        <v>910586.4660387903</v>
+        <v>973073.4607748265</v>
       </c>
       <c r="AE10" t="n">
-        <v>1245904.575073941</v>
+        <v>1331402.038003433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.53923242998651e-06</v>
+        <v>2.602148793757954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1126997.191066937</v>
+        <v>1204334.896130881</v>
       </c>
     </row>
     <row r="11">
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>884.604271417927</v>
+        <v>947.091266153963</v>
       </c>
       <c r="AB11" t="n">
-        <v>1210.354590140147</v>
+        <v>1295.852053069639</v>
       </c>
       <c r="AC11" t="n">
-        <v>1094.840046800507</v>
+        <v>1172.177751864451</v>
       </c>
       <c r="AD11" t="n">
-        <v>884604.271417927</v>
+        <v>947091.266153963</v>
       </c>
       <c r="AE11" t="n">
-        <v>1210354.590140147</v>
+        <v>1295852.053069639</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55277050485901e-06</v>
+        <v>2.625035581037761e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.04904513888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1094840.046800507</v>
+        <v>1172177.751864451</v>
       </c>
     </row>
     <row r="12">
@@ -5037,28 +5037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>852.8874107455212</v>
+        <v>925.7034593230155</v>
       </c>
       <c r="AB12" t="n">
-        <v>1166.958182119023</v>
+        <v>1266.588312200093</v>
       </c>
       <c r="AC12" t="n">
-        <v>1055.585331053678</v>
+        <v>1145.706901351576</v>
       </c>
       <c r="AD12" t="n">
-        <v>852887.4107455212</v>
+        <v>925703.4593230155</v>
       </c>
       <c r="AE12" t="n">
-        <v>1166958.182119023</v>
+        <v>1266588.312200093</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.561827010118545e-06</v>
+        <v>2.640346052528391e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.97309027777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1055585.331053678</v>
+        <v>1145706.901351576</v>
       </c>
     </row>
     <row r="13">
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>845.1329603405514</v>
+        <v>917.9490089180456</v>
       </c>
       <c r="AB13" t="n">
-        <v>1156.348200972736</v>
+        <v>1255.978331053805</v>
       </c>
       <c r="AC13" t="n">
-        <v>1045.98795161679</v>
+        <v>1136.109521914689</v>
       </c>
       <c r="AD13" t="n">
-        <v>845132.9603405514</v>
+        <v>917949.0089180456</v>
       </c>
       <c r="AE13" t="n">
-        <v>1156348.200972736</v>
+        <v>1255978.331053805</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.566308579731511e-06</v>
+        <v>2.647922368317568e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1045987.95161679</v>
+        <v>1136109.521914689</v>
       </c>
     </row>
     <row r="14">
@@ -5249,28 +5249,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>849.7516979380889</v>
+        <v>922.5677465155831</v>
       </c>
       <c r="AB14" t="n">
-        <v>1162.667761518008</v>
+        <v>1262.297891599078</v>
       </c>
       <c r="AC14" t="n">
-        <v>1051.704382173181</v>
+        <v>1141.825952471079</v>
       </c>
       <c r="AD14" t="n">
-        <v>849751.6979380889</v>
+        <v>922567.746515583</v>
       </c>
       <c r="AE14" t="n">
-        <v>1162667.761518008</v>
+        <v>1262297.891599078</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.565281553361873e-06</v>
+        <v>2.646186129282549e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.94487847222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1051704.382173181</v>
+        <v>1141825.952471079</v>
       </c>
     </row>
   </sheetData>
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2294.520359498547</v>
+        <v>2415.607173624869</v>
       </c>
       <c r="AB2" t="n">
-        <v>3139.463982960103</v>
+        <v>3305.140304020968</v>
       </c>
       <c r="AC2" t="n">
-        <v>2839.837946691646</v>
+        <v>2989.702352198633</v>
       </c>
       <c r="AD2" t="n">
-        <v>2294520.359498547</v>
+        <v>2415607.173624869</v>
       </c>
       <c r="AE2" t="n">
-        <v>3139463.982960103</v>
+        <v>3305140.304020967</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870444968651955e-07</v>
+        <v>1.536175682908512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.63064236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2839837.946691646</v>
+        <v>2989702.352198632</v>
       </c>
     </row>
     <row r="3">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1261.527402644414</v>
+        <v>1342.166694049275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1726.077446959184</v>
+        <v>1836.41168301377</v>
       </c>
       <c r="AC3" t="n">
-        <v>1561.34303798631</v>
+        <v>1661.147129406921</v>
       </c>
       <c r="AD3" t="n">
-        <v>1261527.402644414</v>
+        <v>1342166.694049275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1726077.446959184</v>
+        <v>1836411.68301377</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274836706677234e-06</v>
+        <v>2.207750744632997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.44097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1561343.03798631</v>
+        <v>1661147.129406921</v>
       </c>
     </row>
     <row r="4">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1048.678299828227</v>
+        <v>1129.317501724536</v>
       </c>
       <c r="AB4" t="n">
-        <v>1434.84791424639</v>
+        <v>1545.182027831429</v>
       </c>
       <c r="AC4" t="n">
-        <v>1297.908043132409</v>
+        <v>1397.712023771793</v>
       </c>
       <c r="AD4" t="n">
-        <v>1048678.299828227</v>
+        <v>1129317.501724537</v>
       </c>
       <c r="AE4" t="n">
-        <v>1434847.91424639</v>
+        <v>1545182.027831429</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41855645965365e-06</v>
+        <v>2.456643320435247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.77647569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1297908.043132409</v>
+        <v>1397712.023771793</v>
       </c>
     </row>
     <row r="5">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>956.8561087725645</v>
+        <v>1027.404832333565</v>
       </c>
       <c r="AB5" t="n">
-        <v>1309.212741534862</v>
+        <v>1405.740617501045</v>
       </c>
       <c r="AC5" t="n">
-        <v>1184.263314974397</v>
+        <v>1271.578705936093</v>
       </c>
       <c r="AD5" t="n">
-        <v>956856.1087725646</v>
+        <v>1027404.832333565</v>
       </c>
       <c r="AE5" t="n">
-        <v>1309212.741534862</v>
+        <v>1405740.617501045</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495438800627594e-06</v>
+        <v>2.589787467168172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.01692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1184263.314974397</v>
+        <v>1271578.705936093</v>
       </c>
     </row>
     <row r="6">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>889.4715188821275</v>
+        <v>960.1054937891486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1217.01417284847</v>
+        <v>1313.658693467302</v>
       </c>
       <c r="AC6" t="n">
-        <v>1100.864048281931</v>
+        <v>1188.284951494338</v>
       </c>
       <c r="AD6" t="n">
-        <v>889471.5188821275</v>
+        <v>960105.4937891485</v>
       </c>
       <c r="AE6" t="n">
-        <v>1217014.17284847</v>
+        <v>1313658.693467302</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.542476112253612e-06</v>
+        <v>2.67124626045829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.58940972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1100864.048281931</v>
+        <v>1188284.951494338</v>
       </c>
     </row>
     <row r="7">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>844.9738631192939</v>
+        <v>915.4372458257227</v>
       </c>
       <c r="AB7" t="n">
-        <v>1156.130517135737</v>
+        <v>1252.541625979722</v>
       </c>
       <c r="AC7" t="n">
-        <v>1045.791043219674</v>
+        <v>1133.00081114943</v>
       </c>
       <c r="AD7" t="n">
-        <v>844973.8631192939</v>
+        <v>915437.2458257227</v>
       </c>
       <c r="AE7" t="n">
-        <v>1156130.517135737</v>
+        <v>1252541.625979722</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572900656734507e-06</v>
+        <v>2.723935212997073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.32682291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1045791.043219674</v>
+        <v>1133000.81114943</v>
       </c>
     </row>
     <row r="8">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>804.6546094063574</v>
+        <v>865.1981059780693</v>
       </c>
       <c r="AB8" t="n">
-        <v>1100.963935445762</v>
+        <v>1183.802218445738</v>
       </c>
       <c r="AC8" t="n">
-        <v>995.8894826594062</v>
+        <v>1070.821796194125</v>
       </c>
       <c r="AD8" t="n">
-        <v>804654.6094063574</v>
+        <v>865198.1059780692</v>
       </c>
       <c r="AE8" t="n">
-        <v>1100963.935445762</v>
+        <v>1183802.218445738</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599075423573626e-06</v>
+        <v>2.769264438832025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.10763888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>995889.4826594063</v>
+        <v>1070821.796194125</v>
       </c>
     </row>
     <row r="9">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>783.8968292664277</v>
+        <v>844.4403258381395</v>
       </c>
       <c r="AB9" t="n">
-        <v>1072.562224889682</v>
+        <v>1155.400507889658</v>
       </c>
       <c r="AC9" t="n">
-        <v>970.1983914967476</v>
+        <v>1045.130705031466</v>
       </c>
       <c r="AD9" t="n">
-        <v>783896.8292664278</v>
+        <v>844440.3258381395</v>
       </c>
       <c r="AE9" t="n">
-        <v>1072562.224889682</v>
+        <v>1155400.507889658</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.610762312088509e-06</v>
+        <v>2.789503687267558e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.01215277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>970198.3914967476</v>
+        <v>1045130.705031466</v>
       </c>
     </row>
     <row r="10">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>770.1580915142694</v>
+        <v>840.7067255667188</v>
       </c>
       <c r="AB10" t="n">
-        <v>1053.764277786847</v>
+        <v>1150.292031283481</v>
       </c>
       <c r="AC10" t="n">
-        <v>953.1944940823221</v>
+        <v>1040.509774262791</v>
       </c>
       <c r="AD10" t="n">
-        <v>770158.0915142694</v>
+        <v>840706.7255667187</v>
       </c>
       <c r="AE10" t="n">
-        <v>1053764.277786847</v>
+        <v>1150292.031283481</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.613949645319841e-06</v>
+        <v>2.79502348229543e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.98611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>953194.4940823221</v>
+        <v>1040509.774262791</v>
       </c>
     </row>
     <row r="11">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.2004210966169</v>
+        <v>843.7490551490663</v>
       </c>
       <c r="AB11" t="n">
-        <v>1057.926927339523</v>
+        <v>1154.454680836158</v>
       </c>
       <c r="AC11" t="n">
-        <v>956.9598662040066</v>
+        <v>1044.275146384475</v>
       </c>
       <c r="AD11" t="n">
-        <v>773200.4210966169</v>
+        <v>843749.0551490663</v>
       </c>
       <c r="AE11" t="n">
-        <v>1057926.927339523</v>
+        <v>1154454.680836158</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.614529160452811e-06</v>
+        <v>2.796027081391407e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>956959.8662040066</v>
+        <v>1044275.146384475</v>
       </c>
     </row>
   </sheetData>
@@ -6797,28 +6797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.7587856271341</v>
+        <v>988.7117352870008</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.667373869371</v>
+        <v>1352.79901510297</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.259820994873</v>
+        <v>1223.689775766884</v>
       </c>
       <c r="AD2" t="n">
-        <v>906758.7856271341</v>
+        <v>988711.7352870008</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240667.373869371</v>
+        <v>1352799.01510297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415203298816442e-06</v>
+        <v>2.677869178561681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122259.820994873</v>
+        <v>1223689.775766884</v>
       </c>
     </row>
     <row r="3">
@@ -6903,28 +6903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.3556354559182</v>
+        <v>698.1631947449259</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.9533662262861</v>
+        <v>955.25768383635</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.117115133849</v>
+        <v>864.0892312035877</v>
       </c>
       <c r="AD3" t="n">
-        <v>634355.6354559183</v>
+        <v>698163.1947449259</v>
       </c>
       <c r="AE3" t="n">
-        <v>867953.3662262862</v>
+        <v>955257.68383635</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.690785877071993e-06</v>
+        <v>3.19933071915891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.83246527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>785117.115133849</v>
+        <v>864089.2312035877</v>
       </c>
     </row>
     <row r="4">
@@ -7009,28 +7009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>597.8356100624566</v>
+        <v>661.4725771508721</v>
       </c>
       <c r="AB4" t="n">
-        <v>817.985056333141</v>
+        <v>905.0559621683577</v>
       </c>
       <c r="AC4" t="n">
-        <v>739.9177106059421</v>
+        <v>818.6786913930298</v>
       </c>
       <c r="AD4" t="n">
-        <v>597835.6100624566</v>
+        <v>661472.5771508721</v>
       </c>
       <c r="AE4" t="n">
-        <v>817985.0563331409</v>
+        <v>905055.9621683577</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.736590568412865e-06</v>
+        <v>3.286003051874523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.46788194444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>739917.7106059422</v>
+        <v>818678.6913930298</v>
       </c>
     </row>
   </sheetData>
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.577354246556</v>
+        <v>1378.458321181709</v>
       </c>
       <c r="AB2" t="n">
-        <v>1756.247163516444</v>
+        <v>1886.067488329959</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.633399138808</v>
+        <v>1706.063854356092</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283577.354246556</v>
+        <v>1378458.321181709</v>
       </c>
       <c r="AE2" t="n">
-        <v>1756247.163516444</v>
+        <v>1886067.488329959</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.203242756027354e-06</v>
+        <v>2.192046987500923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.59592013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588633.399138808</v>
+        <v>1706063.854356092</v>
       </c>
     </row>
     <row r="3">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>846.4721776397416</v>
+        <v>922.3598830169499</v>
       </c>
       <c r="AB3" t="n">
-        <v>1158.180577163585</v>
+        <v>1262.013483589958</v>
       </c>
       <c r="AC3" t="n">
-        <v>1047.645448395741</v>
+        <v>1141.56868796318</v>
       </c>
       <c r="AD3" t="n">
-        <v>846472.1776397417</v>
+        <v>922359.8830169499</v>
       </c>
       <c r="AE3" t="n">
-        <v>1158180.577163585</v>
+        <v>1262013.483589958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524004385333361e-06</v>
+        <v>2.776405014760167e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1047645.448395741</v>
+        <v>1141568.68796318</v>
       </c>
     </row>
     <row r="4">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>723.6582539164217</v>
+        <v>790.1346693692288</v>
       </c>
       <c r="AB4" t="n">
-        <v>990.1411485574196</v>
+        <v>1081.097112912418</v>
       </c>
       <c r="AC4" t="n">
-        <v>895.6434670109286</v>
+        <v>977.9187217853842</v>
       </c>
       <c r="AD4" t="n">
-        <v>723658.2539164217</v>
+        <v>790134.6693692289</v>
       </c>
       <c r="AE4" t="n">
-        <v>990141.1485574195</v>
+        <v>1081097.112912418</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.639585801743529e-06</v>
+        <v>2.986969254090804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>895643.4670109286</v>
+        <v>977918.7217853841</v>
       </c>
     </row>
     <row r="5">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>666.2876382393985</v>
+        <v>732.5934614916137</v>
       </c>
       <c r="AB5" t="n">
-        <v>911.6441411751827</v>
+        <v>1002.366693755334</v>
       </c>
       <c r="AC5" t="n">
-        <v>824.6381038420107</v>
+        <v>906.7022233338151</v>
       </c>
       <c r="AD5" t="n">
-        <v>666287.6382393985</v>
+        <v>732593.4614916136</v>
       </c>
       <c r="AE5" t="n">
-        <v>911644.1411751827</v>
+        <v>1002366.693755334</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.691138619054041e-06</v>
+        <v>3.080887291258795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.23133680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>824638.1038420106</v>
+        <v>906702.2233338151</v>
       </c>
     </row>
     <row r="6">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>661.5879803796028</v>
+        <v>718.5678545619886</v>
       </c>
       <c r="AB6" t="n">
-        <v>905.2138619571382</v>
+        <v>983.176239588114</v>
       </c>
       <c r="AC6" t="n">
-        <v>818.8215214475828</v>
+        <v>889.3432791783426</v>
       </c>
       <c r="AD6" t="n">
-        <v>661587.9803796028</v>
+        <v>718567.8545619886</v>
       </c>
       <c r="AE6" t="n">
-        <v>905213.8619571382</v>
+        <v>983176.239588114</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.695469055708124e-06</v>
+        <v>3.088776406380907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>818821.5214475828</v>
+        <v>889343.2791783427</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>671.8359957076896</v>
+        <v>733.4546349857118</v>
       </c>
       <c r="AB2" t="n">
-        <v>919.2356486395544</v>
+        <v>1003.544989322253</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.5050884887306</v>
+        <v>907.768064025575</v>
       </c>
       <c r="AD2" t="n">
-        <v>671835.9957076896</v>
+        <v>733454.6349857118</v>
       </c>
       <c r="AE2" t="n">
-        <v>919235.6486395544</v>
+        <v>1003544.989322253</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601218430684143e-06</v>
+        <v>3.137872210813713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.17144097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>831505.0884887306</v>
+        <v>907768.0640255749</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>548.0353458001283</v>
+        <v>618.2858638275237</v>
       </c>
       <c r="AB3" t="n">
-        <v>749.8461377368227</v>
+        <v>845.9659957360276</v>
       </c>
       <c r="AC3" t="n">
-        <v>678.2818747668839</v>
+        <v>765.2281884237123</v>
       </c>
       <c r="AD3" t="n">
-        <v>548035.3458001283</v>
+        <v>618285.8638275237</v>
       </c>
       <c r="AE3" t="n">
-        <v>749846.1377368227</v>
+        <v>845965.9957360276</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.752329572342555e-06</v>
+        <v>3.434001360383688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.86284722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>678281.8747668839</v>
+        <v>765228.1884237123</v>
       </c>
     </row>
     <row r="4">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.3377277069641</v>
+        <v>623.5882457343594</v>
       </c>
       <c r="AB4" t="n">
-        <v>757.1010905863359</v>
+        <v>853.2209485855403</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.8444250988296</v>
+        <v>771.790738755658</v>
       </c>
       <c r="AD4" t="n">
-        <v>553337.7277069641</v>
+        <v>623588.2457343594</v>
       </c>
       <c r="AE4" t="n">
-        <v>757101.0905863359</v>
+        <v>853220.9485855403</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.752105703984543e-06</v>
+        <v>3.433562650532474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.86501736111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>684844.4250988296</v>
+        <v>771790.738755658</v>
       </c>
     </row>
   </sheetData>
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2513.217287903171</v>
+        <v>2645.416131418809</v>
       </c>
       <c r="AB2" t="n">
-        <v>3438.694768630871</v>
+        <v>3619.575058530335</v>
       </c>
       <c r="AC2" t="n">
-        <v>3110.51056615103</v>
+        <v>3274.127895049564</v>
       </c>
       <c r="AD2" t="n">
-        <v>2513217.287903171</v>
+        <v>2645416.131418809</v>
       </c>
       <c r="AE2" t="n">
-        <v>3438694.768630871</v>
+        <v>3619575.058530335</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43564775839795e-07</v>
+        <v>1.451337343963587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.62456597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3110510.56615103</v>
+        <v>3274127.895049565</v>
       </c>
     </row>
     <row r="3">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1331.299853264193</v>
+        <v>1422.795870819766</v>
       </c>
       <c r="AB3" t="n">
-        <v>1821.543192040441</v>
+        <v>1946.732079779388</v>
       </c>
       <c r="AC3" t="n">
-        <v>1647.697666344028</v>
+        <v>1760.938702340877</v>
       </c>
       <c r="AD3" t="n">
-        <v>1331299.853264193</v>
+        <v>1422795.870819766</v>
       </c>
       <c r="AE3" t="n">
-        <v>1821543.192040441</v>
+        <v>1946732.079779388</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240316846174068e-06</v>
+        <v>2.133941824926832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74696180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1647697.666344028</v>
+        <v>1760938.702340877</v>
       </c>
     </row>
     <row r="4">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1098.570396121433</v>
+        <v>1179.89070718699</v>
       </c>
       <c r="AB4" t="n">
-        <v>1503.112481478698</v>
+        <v>1614.378518677518</v>
       </c>
       <c r="AC4" t="n">
-        <v>1359.657535877988</v>
+        <v>1460.304498649416</v>
       </c>
       <c r="AD4" t="n">
-        <v>1098570.396121433</v>
+        <v>1179890.70718699</v>
       </c>
       <c r="AE4" t="n">
-        <v>1503112.481478698</v>
+        <v>1614378.518677518</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389062978212539e-06</v>
+        <v>2.389856749755995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1359657.535877988</v>
+        <v>1460304.498649416</v>
       </c>
     </row>
     <row r="5">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1002.964399160219</v>
+        <v>1074.109093244311</v>
       </c>
       <c r="AB5" t="n">
-        <v>1372.300138597459</v>
+        <v>1469.6434477257</v>
       </c>
       <c r="AC5" t="n">
-        <v>1241.329739405058</v>
+        <v>1329.382739732292</v>
       </c>
       <c r="AD5" t="n">
-        <v>1002964.399160219</v>
+        <v>1074109.093244311</v>
       </c>
       <c r="AE5" t="n">
-        <v>1372300.138597459</v>
+        <v>1469643.4477257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466020436487269e-06</v>
+        <v>2.522260610478419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.16883680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1241329.739405058</v>
+        <v>1329382.739732292</v>
       </c>
     </row>
     <row r="6">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>932.5171205730217</v>
+        <v>1003.747066003134</v>
       </c>
       <c r="AB6" t="n">
-        <v>1275.911064119871</v>
+        <v>1373.37101790076</v>
       </c>
       <c r="AC6" t="n">
-        <v>1154.139902912695</v>
+        <v>1242.298415490641</v>
       </c>
       <c r="AD6" t="n">
-        <v>932517.1205730217</v>
+        <v>1003747.066003134</v>
       </c>
       <c r="AE6" t="n">
-        <v>1275911.064119871</v>
+        <v>1373371.01790076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514836734646612e-06</v>
+        <v>2.606248134071001e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.71310763888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1154139.902912695</v>
+        <v>1242298.415490641</v>
       </c>
     </row>
     <row r="7">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>887.855356151668</v>
+        <v>958.9147093811885</v>
       </c>
       <c r="AB7" t="n">
-        <v>1214.802867700588</v>
+        <v>1312.029409706631</v>
       </c>
       <c r="AC7" t="n">
-        <v>1098.863786993776</v>
+        <v>1186.811164289071</v>
       </c>
       <c r="AD7" t="n">
-        <v>887855.356151668</v>
+        <v>958914.7093811885</v>
       </c>
       <c r="AE7" t="n">
-        <v>1214802.867700588</v>
+        <v>1312029.409706631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548625270431413e-06</v>
+        <v>2.664380674910573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.41362847222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1098863.786993776</v>
+        <v>1186811.164289071</v>
       </c>
     </row>
     <row r="8">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>850.3430113096883</v>
+        <v>921.4023645392089</v>
       </c>
       <c r="AB8" t="n">
-        <v>1163.476822559935</v>
+        <v>1260.703364565979</v>
       </c>
       <c r="AC8" t="n">
-        <v>1052.436227564791</v>
+        <v>1140.383604860086</v>
       </c>
       <c r="AD8" t="n">
-        <v>850343.0113096883</v>
+        <v>921402.3645392088</v>
       </c>
       <c r="AE8" t="n">
-        <v>1163476.822559936</v>
+        <v>1260703.364565979</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.572650546584345e-06</v>
+        <v>2.705715711031628e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.20746527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1052436.227564791</v>
+        <v>1140383.604860086</v>
       </c>
     </row>
     <row r="9">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>818.7984101798087</v>
+        <v>879.8527386284562</v>
       </c>
       <c r="AB9" t="n">
-        <v>1120.31610764445</v>
+        <v>1203.853333354761</v>
       </c>
       <c r="AC9" t="n">
-        <v>1013.394710704396</v>
+        <v>1088.959260838147</v>
       </c>
       <c r="AD9" t="n">
-        <v>818798.4101798087</v>
+        <v>879852.7386284563</v>
       </c>
       <c r="AE9" t="n">
-        <v>1120316.10764445</v>
+        <v>1203853.333354761</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.590262701214383e-06</v>
+        <v>2.736017092092481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.06206597222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1013394.710704396</v>
+        <v>1088959.260838147</v>
       </c>
     </row>
     <row r="10">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>786.5398969228165</v>
+        <v>857.6845014983575</v>
       </c>
       <c r="AB10" t="n">
-        <v>1076.178586661069</v>
+        <v>1173.521773319761</v>
       </c>
       <c r="AC10" t="n">
-        <v>973.4696127762687</v>
+        <v>1061.522502322276</v>
       </c>
       <c r="AD10" t="n">
-        <v>786539.8969228165</v>
+        <v>857684.5014983575</v>
       </c>
       <c r="AE10" t="n">
-        <v>1076178.586661069</v>
+        <v>1173521.773319761</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601174579626471e-06</v>
+        <v>2.754790773836706e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.97309027777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>973469.6127762687</v>
+        <v>1061522.502322276</v>
       </c>
     </row>
     <row r="11">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>789.640467181604</v>
+        <v>860.7850717571449</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080.420923676648</v>
+        <v>1177.76411033534</v>
       </c>
       <c r="AC11" t="n">
-        <v>977.3070671012381</v>
+        <v>1065.359956647245</v>
       </c>
       <c r="AD11" t="n">
-        <v>789640.467181604</v>
+        <v>860785.0717571449</v>
       </c>
       <c r="AE11" t="n">
-        <v>1080420.923676648</v>
+        <v>1177764.11033534</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.600600270236361e-06</v>
+        <v>2.753802685323852e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.97743055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>977307.0671012381</v>
+        <v>1065359.956647245</v>
       </c>
     </row>
     <row r="12">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>793.2478717680947</v>
+        <v>864.3924763436357</v>
       </c>
       <c r="AB12" t="n">
-        <v>1085.356733779343</v>
+        <v>1182.699920438035</v>
       </c>
       <c r="AC12" t="n">
-        <v>981.7718104151847</v>
+        <v>1069.824699961192</v>
       </c>
       <c r="AD12" t="n">
-        <v>793247.8717680947</v>
+        <v>864392.4763436357</v>
       </c>
       <c r="AE12" t="n">
-        <v>1085356.733779343</v>
+        <v>1182699.920438035</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.600025960846252e-06</v>
+        <v>2.752814596810998e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>981771.8104151847</v>
+        <v>1069824.699961192</v>
       </c>
     </row>
   </sheetData>
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.9961404776665</v>
+        <v>624.850603486465</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.7384482201047</v>
+        <v>854.948162153265</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.1346384250952</v>
+        <v>773.3531094846384</v>
       </c>
       <c r="AD2" t="n">
-        <v>555996.1404776665</v>
+        <v>624850.6034864651</v>
       </c>
       <c r="AE2" t="n">
-        <v>760738.4482201047</v>
+        <v>854948.162153265</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.706243139000837e-06</v>
+        <v>3.420438013611045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>688134.6384250952</v>
+        <v>773353.1094846383</v>
       </c>
     </row>
     <row r="3">
@@ -9999,28 +9999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.8657807333625</v>
+        <v>592.1028577677909</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.722225461609</v>
+        <v>810.1412517323976</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.2694376281104</v>
+        <v>732.822507707445</v>
       </c>
       <c r="AD3" t="n">
-        <v>531865.7807333625</v>
+        <v>592102.8577677909</v>
       </c>
       <c r="AE3" t="n">
-        <v>727722.225461609</v>
+        <v>810141.2517323976</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.750574531736206e-06</v>
+        <v>3.509307400067404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>658269.4376281104</v>
+        <v>732822.507707445</v>
       </c>
     </row>
   </sheetData>
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1730.920755132922</v>
+        <v>1838.792183465814</v>
       </c>
       <c r="AB2" t="n">
-        <v>2368.322140007161</v>
+        <v>2515.916587203773</v>
       </c>
       <c r="AC2" t="n">
-        <v>2142.292798925877</v>
+        <v>2275.801039232152</v>
       </c>
       <c r="AD2" t="n">
-        <v>1730920.755132922</v>
+        <v>1838792.183465814</v>
       </c>
       <c r="AE2" t="n">
-        <v>2368322.140007161</v>
+        <v>2515916.587203773</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.031655007647984e-06</v>
+        <v>1.827137677629935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.93315972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2142292.798925877</v>
+        <v>2275801.039232152</v>
       </c>
     </row>
     <row r="3">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1049.60471499088</v>
+        <v>1128.1187289454</v>
       </c>
       <c r="AB3" t="n">
-        <v>1436.115476342484</v>
+        <v>1543.541814028892</v>
       </c>
       <c r="AC3" t="n">
-        <v>1299.054630881088</v>
+        <v>1396.228349672516</v>
       </c>
       <c r="AD3" t="n">
-        <v>1049604.71499088</v>
+        <v>1128118.7289454</v>
       </c>
       <c r="AE3" t="n">
-        <v>1436115.476342485</v>
+        <v>1543541.814028892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.390201645301663e-06</v>
+        <v>2.462150415403704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1299054.630881088</v>
+        <v>1396228.349672516</v>
       </c>
     </row>
     <row r="4">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>894.4798903707867</v>
+        <v>963.0944012349707</v>
       </c>
       <c r="AB4" t="n">
-        <v>1223.86684767301</v>
+        <v>1317.748248495966</v>
       </c>
       <c r="AC4" t="n">
-        <v>1107.062713439006</v>
+        <v>1191.984205130793</v>
       </c>
       <c r="AD4" t="n">
-        <v>894479.8903707868</v>
+        <v>963094.4012349708</v>
       </c>
       <c r="AE4" t="n">
-        <v>1223866.84767301</v>
+        <v>1317748.248495966</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519469500509026e-06</v>
+        <v>2.691093392469517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1107062.713439006</v>
+        <v>1191984.205130793</v>
       </c>
     </row>
     <row r="5">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>806.4653919769759</v>
+        <v>875.1651541871804</v>
       </c>
       <c r="AB5" t="n">
-        <v>1103.441528044971</v>
+        <v>1197.439573520578</v>
       </c>
       <c r="AC5" t="n">
-        <v>998.1306172982698</v>
+        <v>1083.15762124077</v>
       </c>
       <c r="AD5" t="n">
-        <v>806465.3919769758</v>
+        <v>875165.1541871805</v>
       </c>
       <c r="AE5" t="n">
-        <v>1103441.528044971</v>
+        <v>1197439.573520578</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589626419616948e-06</v>
+        <v>2.81534650935281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.58506944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>998130.6172982699</v>
+        <v>1083157.62124077</v>
       </c>
     </row>
     <row r="6">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>753.3138938353113</v>
+        <v>821.8430638449237</v>
       </c>
       <c r="AB6" t="n">
-        <v>1030.717303408941</v>
+        <v>1124.4819371097</v>
       </c>
       <c r="AC6" t="n">
-        <v>932.3470905924122</v>
+        <v>1017.162959252261</v>
       </c>
       <c r="AD6" t="n">
-        <v>753313.8938353113</v>
+        <v>821843.0638449236</v>
       </c>
       <c r="AE6" t="n">
-        <v>1030717.303408941</v>
+        <v>1124481.9371097</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631123490919081e-06</v>
+        <v>2.88884090614761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.24001736111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>932347.0905924122</v>
+        <v>1017162.959252261</v>
       </c>
     </row>
     <row r="7">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>725.9196556005427</v>
+        <v>784.8052555749836</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.2352981076351</v>
+        <v>1073.805173841989</v>
       </c>
       <c r="AC7" t="n">
-        <v>898.4423152707378</v>
+        <v>971.3227151455355</v>
       </c>
       <c r="AD7" t="n">
-        <v>725919.6556005427</v>
+        <v>784805.2555749835</v>
       </c>
       <c r="AE7" t="n">
-        <v>993235.2981076351</v>
+        <v>1073805.173841989</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.651822269889928e-06</v>
+        <v>2.925499981767078e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>898442.3152707379</v>
+        <v>971322.7151455355</v>
       </c>
     </row>
     <row r="8">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>723.12591231752</v>
+        <v>782.0115122919607</v>
       </c>
       <c r="AB8" t="n">
-        <v>989.4127752965481</v>
+        <v>1069.982651030902</v>
       </c>
       <c r="AC8" t="n">
-        <v>894.9846086717968</v>
+        <v>967.8650085465944</v>
       </c>
       <c r="AD8" t="n">
-        <v>723125.91231752</v>
+        <v>782011.5122919607</v>
       </c>
       <c r="AE8" t="n">
-        <v>989412.7752965481</v>
+        <v>1069982.651030902</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.653513997017354e-06</v>
+        <v>2.928496156216746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.05989583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>894984.6086717967</v>
+        <v>967865.0085465944</v>
       </c>
     </row>
   </sheetData>
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2092.029379295208</v>
+        <v>2211.970338766547</v>
       </c>
       <c r="AB2" t="n">
-        <v>2862.406890574146</v>
+        <v>3026.515402744687</v>
       </c>
       <c r="AC2" t="n">
-        <v>2589.222794351052</v>
+        <v>2737.669020447667</v>
       </c>
       <c r="AD2" t="n">
-        <v>2092029.379295208</v>
+        <v>2211970.338766547</v>
       </c>
       <c r="AE2" t="n">
-        <v>2862406.890574147</v>
+        <v>3026515.402744688</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.328137578113596e-07</v>
+        <v>1.626745741067865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2589222.794351052</v>
+        <v>2737669.020447667</v>
       </c>
     </row>
     <row r="3">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1191.973615717475</v>
+        <v>1271.905897922059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1630.910887189229</v>
+        <v>1740.277762064954</v>
       </c>
       <c r="AC3" t="n">
-        <v>1475.259041113695</v>
+        <v>1574.188094948654</v>
       </c>
       <c r="AD3" t="n">
-        <v>1191973.615717475</v>
+        <v>1271905.897922059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1630910.887189229</v>
+        <v>1740277.762064954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312003964159052e-06</v>
+        <v>2.288020350351123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.12847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1475259.041113695</v>
+        <v>1574188.094948654</v>
       </c>
     </row>
     <row r="4">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>995.7592743526296</v>
+        <v>1075.691467048663</v>
       </c>
       <c r="AB4" t="n">
-        <v>1362.441768968043</v>
+        <v>1471.80852137422</v>
       </c>
       <c r="AC4" t="n">
-        <v>1232.412238736765</v>
+        <v>1331.341181790497</v>
       </c>
       <c r="AD4" t="n">
-        <v>995759.2743526297</v>
+        <v>1075691.467048663</v>
       </c>
       <c r="AE4" t="n">
-        <v>1362441.768968043</v>
+        <v>1471808.52137422</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452018655934647e-06</v>
+        <v>2.532193746836275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.57248263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1232412.238736765</v>
+        <v>1331341.181790497</v>
       </c>
     </row>
     <row r="5">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>901.2229098060294</v>
+        <v>981.0697616474913</v>
       </c>
       <c r="AB5" t="n">
-        <v>1233.092944345331</v>
+        <v>1342.34292962931</v>
       </c>
       <c r="AC5" t="n">
-        <v>1115.408284393828</v>
+        <v>1214.231604415622</v>
       </c>
       <c r="AD5" t="n">
-        <v>901222.9098060294</v>
+        <v>981069.7616474913</v>
       </c>
       <c r="AE5" t="n">
-        <v>1233092.944345331</v>
+        <v>1342342.92962931</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5252436096418e-06</v>
+        <v>2.659891672156853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.87369791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1115408.284393828</v>
+        <v>1214231.604415622</v>
       </c>
     </row>
     <row r="6">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>847.0965841709723</v>
+        <v>916.9413338271595</v>
       </c>
       <c r="AB6" t="n">
-        <v>1159.034917726487</v>
+        <v>1254.599585538968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1048.418251894394</v>
+        <v>1134.862361936705</v>
       </c>
       <c r="AD6" t="n">
-        <v>847096.5841709722</v>
+        <v>916941.3338271595</v>
       </c>
       <c r="AE6" t="n">
-        <v>1159034.917726487</v>
+        <v>1254599.585538968</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569802602776512e-06</v>
+        <v>2.737598665327963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.47873263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1048418.251894394</v>
+        <v>1134862.361936705</v>
       </c>
     </row>
     <row r="7">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>801.0258558361653</v>
+        <v>870.8706054923525</v>
       </c>
       <c r="AB7" t="n">
-        <v>1095.998914721716</v>
+        <v>1191.563582534197</v>
       </c>
       <c r="AC7" t="n">
-        <v>991.3983165448132</v>
+        <v>1077.842426587124</v>
       </c>
       <c r="AD7" t="n">
-        <v>801025.8558361653</v>
+        <v>870870.6054923525</v>
       </c>
       <c r="AE7" t="n">
-        <v>1095998.914721716</v>
+        <v>1191563.582534197</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602368694039081e-06</v>
+        <v>2.794391084844705e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.20529513888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>991398.3165448131</v>
+        <v>1077842.426587124</v>
       </c>
     </row>
     <row r="8">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>769.7264111817867</v>
+        <v>829.7396508532917</v>
       </c>
       <c r="AB8" t="n">
-        <v>1053.173633711552</v>
+        <v>1135.286395827381</v>
       </c>
       <c r="AC8" t="n">
-        <v>952.6602202485992</v>
+        <v>1026.936255594079</v>
       </c>
       <c r="AD8" t="n">
-        <v>769726.4111817867</v>
+        <v>829739.6508532916</v>
       </c>
       <c r="AE8" t="n">
-        <v>1053173.633711552</v>
+        <v>1135286.395827381</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>2.826698149839258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.05338541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>952660.2202485992</v>
+        <v>1026936.255594079</v>
       </c>
     </row>
     <row r="9">
@@ -11971,28 +11971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>760.4705070884901</v>
+        <v>820.4837467599949</v>
       </c>
       <c r="AB9" t="n">
-        <v>1040.509297389434</v>
+        <v>1122.622059505263</v>
       </c>
       <c r="AC9" t="n">
-        <v>941.2045504105567</v>
+        <v>1015.480585756037</v>
       </c>
       <c r="AD9" t="n">
-        <v>760470.5070884901</v>
+        <v>820483.7467599949</v>
       </c>
       <c r="AE9" t="n">
-        <v>1040509.297389434</v>
+        <v>1122622.059505263</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625574471645342e-06</v>
+        <v>2.834859934679987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.01649305555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>941204.5504105567</v>
+        <v>1015480.585756037</v>
       </c>
     </row>
     <row r="10">
@@ -12077,28 +12077,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>763.6519851997912</v>
+        <v>823.6652248712959</v>
       </c>
       <c r="AB10" t="n">
-        <v>1044.862336098225</v>
+        <v>1126.975098214054</v>
       </c>
       <c r="AC10" t="n">
-        <v>945.1421412145085</v>
+        <v>1019.418176559988</v>
       </c>
       <c r="AD10" t="n">
-        <v>763651.9851997911</v>
+        <v>823665.2248712959</v>
       </c>
       <c r="AE10" t="n">
-        <v>1044862.336098225</v>
+        <v>1126975.098214054</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.625769478179849e-06</v>
+        <v>2.835200009048352e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>945142.1412145084</v>
+        <v>1019418.176559988</v>
       </c>
     </row>
   </sheetData>
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3015.967836136433</v>
+        <v>3160.606449815753</v>
       </c>
       <c r="AB2" t="n">
-        <v>4126.580248512475</v>
+        <v>4324.481180753819</v>
       </c>
       <c r="AC2" t="n">
-        <v>3732.745221286043</v>
+        <v>3911.758766309968</v>
       </c>
       <c r="AD2" t="n">
-        <v>3015967.836136433</v>
+        <v>3160606.449815752</v>
       </c>
       <c r="AE2" t="n">
-        <v>4126580.248512475</v>
+        <v>4324481.180753819</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.614634690588324e-07</v>
+        <v>1.294437430358725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3732745.221286044</v>
+        <v>3911758.766309968</v>
       </c>
     </row>
     <row r="3">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1492.645570678248</v>
+        <v>1585.511806392301</v>
       </c>
       <c r="AB3" t="n">
-        <v>2042.303520677037</v>
+        <v>2169.367201350172</v>
       </c>
       <c r="AC3" t="n">
-        <v>1847.388939054613</v>
+        <v>1962.325840379301</v>
       </c>
       <c r="AD3" t="n">
-        <v>1492645.570678248</v>
+        <v>1585511.8063923</v>
       </c>
       <c r="AE3" t="n">
-        <v>2042303.520677037</v>
+        <v>2169367.201350172</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.171699442563646e-06</v>
+        <v>1.991811396362146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.43055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1847388.939054613</v>
+        <v>1962325.840379301</v>
       </c>
     </row>
     <row r="4">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1215.859552950268</v>
+        <v>1298.388363340471</v>
       </c>
       <c r="AB4" t="n">
-        <v>1663.592680284317</v>
+        <v>1776.512239574344</v>
       </c>
       <c r="AC4" t="n">
-        <v>1504.821729744972</v>
+        <v>1606.964404779956</v>
       </c>
       <c r="AD4" t="n">
-        <v>1215859.552950268</v>
+        <v>1298388.363340471</v>
       </c>
       <c r="AE4" t="n">
-        <v>1663592.680284317</v>
+        <v>1776512.239574344</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329431833385869e-06</v>
+        <v>2.259946006828247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.36241319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1504821.729744972</v>
+        <v>1606964.404779956</v>
       </c>
     </row>
     <row r="5">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1095.568776739056</v>
+        <v>1167.845502659981</v>
       </c>
       <c r="AB5" t="n">
-        <v>1499.00553341763</v>
+        <v>1597.897738446745</v>
       </c>
       <c r="AC5" t="n">
-        <v>1355.94254917573</v>
+        <v>1445.396620952948</v>
       </c>
       <c r="AD5" t="n">
-        <v>1095568.776739056</v>
+        <v>1167845.502659981</v>
       </c>
       <c r="AE5" t="n">
-        <v>1499005.53341763</v>
+        <v>1597897.738446745</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411309625757787e-06</v>
+        <v>2.399132827296927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.47048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1355942.54917573</v>
+        <v>1445396.620952948</v>
       </c>
     </row>
     <row r="6">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1019.867964471249</v>
+        <v>1102.396685352901</v>
       </c>
       <c r="AB6" t="n">
-        <v>1395.428342388681</v>
+        <v>1508.34777920916</v>
       </c>
       <c r="AC6" t="n">
-        <v>1262.250619887084</v>
+        <v>1364.393184140841</v>
       </c>
       <c r="AD6" t="n">
-        <v>1019867.964471249</v>
+        <v>1102396.685352901</v>
       </c>
       <c r="AE6" t="n">
-        <v>1395428.342388681</v>
+        <v>1508347.77920916</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462318549281441e-06</v>
+        <v>2.485844616600404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.96701388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1262250.619887084</v>
+        <v>1364393.184140841</v>
       </c>
     </row>
     <row r="7">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>970.5019923413006</v>
+        <v>1042.863969608246</v>
       </c>
       <c r="AB7" t="n">
-        <v>1327.883641447502</v>
+        <v>1426.892491129266</v>
       </c>
       <c r="AC7" t="n">
-        <v>1201.152290404147</v>
+        <v>1290.711874432078</v>
       </c>
       <c r="AD7" t="n">
-        <v>970501.9923413006</v>
+        <v>1042863.969608246</v>
       </c>
       <c r="AE7" t="n">
-        <v>1327883.641447502</v>
+        <v>1426892.491129266</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498928274836241e-06</v>
+        <v>2.548078723683526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1201152.290404147</v>
+        <v>1290711.874432078</v>
       </c>
     </row>
     <row r="8">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>930.6715645389164</v>
+        <v>1002.86294960527</v>
       </c>
       <c r="AB8" t="n">
-        <v>1273.385892933822</v>
+        <v>1372.161330840739</v>
       </c>
       <c r="AC8" t="n">
-        <v>1151.855730520543</v>
+        <v>1241.204179265822</v>
       </c>
       <c r="AD8" t="n">
-        <v>930671.5645389165</v>
+        <v>1002862.94960527</v>
       </c>
       <c r="AE8" t="n">
-        <v>1273385.892933822</v>
+        <v>1372161.330840739</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525656197863395e-06</v>
+        <v>2.593514421399738e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.38758680555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1151855.730520543</v>
+        <v>1241204.179265822</v>
       </c>
     </row>
     <row r="9">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>898.3057815427591</v>
+        <v>970.4971666091125</v>
       </c>
       <c r="AB9" t="n">
-        <v>1229.101600760908</v>
+        <v>1327.877038667825</v>
       </c>
       <c r="AC9" t="n">
-        <v>1111.797869039217</v>
+        <v>1201.146317784497</v>
       </c>
       <c r="AD9" t="n">
-        <v>898305.781542759</v>
+        <v>970497.1666091125</v>
       </c>
       <c r="AE9" t="n">
-        <v>1229101.600760908</v>
+        <v>1327877.038667826</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.54513746570361e-06</v>
+        <v>2.626631285580217e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.21831597222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1111797.869039217</v>
+        <v>1201146.317784497</v>
       </c>
     </row>
     <row r="10">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>870.1545284336642</v>
+        <v>932.1791698853112</v>
       </c>
       <c r="AB10" t="n">
-        <v>1190.58381431141</v>
+        <v>1275.448665079613</v>
       </c>
       <c r="AC10" t="n">
-        <v>1076.956166068406</v>
+        <v>1153.721634587858</v>
       </c>
       <c r="AD10" t="n">
-        <v>870154.5284336641</v>
+        <v>932179.1698853113</v>
       </c>
       <c r="AE10" t="n">
-        <v>1190583.81431141</v>
+        <v>1275448.665079613</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.560289562912666e-06</v>
+        <v>2.652388846609479e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.09027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1076956.166068406</v>
+        <v>1153721.634587859</v>
       </c>
     </row>
     <row r="11">
@@ -13328,28 +13328,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>836.7194326221031</v>
+        <v>908.996069034477</v>
       </c>
       <c r="AB11" t="n">
-        <v>1144.836441169708</v>
+        <v>1243.728523729275</v>
       </c>
       <c r="AC11" t="n">
-        <v>1035.574858012508</v>
+        <v>1125.028819008499</v>
       </c>
       <c r="AD11" t="n">
-        <v>836719.4326221031</v>
+        <v>908996.069034477</v>
       </c>
       <c r="AE11" t="n">
-        <v>1144836.441169708</v>
+        <v>1243728.523729275</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.57195950113579e-06</v>
+        <v>2.672226968147544e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.99262152777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1035574.858012507</v>
+        <v>1125028.819008499</v>
       </c>
     </row>
     <row r="12">
@@ -13434,28 +13434,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>824.6231268754838</v>
+        <v>896.8997632878577</v>
       </c>
       <c r="AB12" t="n">
-        <v>1128.285741995837</v>
+        <v>1227.177824555404</v>
       </c>
       <c r="AC12" t="n">
-        <v>1020.603734338739</v>
+        <v>1110.05769533473</v>
       </c>
       <c r="AD12" t="n">
-        <v>824623.1268754838</v>
+        <v>896899.7632878576</v>
       </c>
       <c r="AE12" t="n">
-        <v>1128285.741995838</v>
+        <v>1227177.824555404</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.577229795817201e-06</v>
+        <v>2.681186119809896e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1020603.734338739</v>
+        <v>1110057.69533473</v>
       </c>
     </row>
     <row r="13">
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>827.4316800050891</v>
+        <v>899.7083164174632</v>
       </c>
       <c r="AB13" t="n">
-        <v>1132.128528292383</v>
+        <v>1231.02061085195</v>
       </c>
       <c r="AC13" t="n">
-        <v>1024.079770504526</v>
+        <v>1113.533731500518</v>
       </c>
       <c r="AD13" t="n">
-        <v>827431.6800050891</v>
+        <v>899708.3164174631</v>
       </c>
       <c r="AE13" t="n">
-        <v>1132128.528292383</v>
+        <v>1231020.61085195</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.577135683412175e-06</v>
+        <v>2.681026134958782e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1024079.770504526</v>
+        <v>1113533.731500518</v>
       </c>
     </row>
   </sheetData>
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1425.523349830662</v>
+        <v>1521.43422124161</v>
       </c>
       <c r="AB2" t="n">
-        <v>1950.463936889978</v>
+        <v>2081.693422443453</v>
       </c>
       <c r="AC2" t="n">
-        <v>1764.314396246525</v>
+        <v>1883.019523880518</v>
       </c>
       <c r="AD2" t="n">
-        <v>1425523.349830662</v>
+        <v>1521434.22124161</v>
       </c>
       <c r="AE2" t="n">
-        <v>1950463.936889977</v>
+        <v>2081693.422443453</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142875913377228e-06</v>
+        <v>2.060875721909531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.33376736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1764314.396246525</v>
+        <v>1883019.523880518</v>
       </c>
     </row>
     <row r="3">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>911.2311183138298</v>
+        <v>988.0109483484904</v>
       </c>
       <c r="AB3" t="n">
-        <v>1246.786616756701</v>
+        <v>1351.840167497161</v>
       </c>
       <c r="AC3" t="n">
-        <v>1127.795051929448</v>
+        <v>1222.822439230823</v>
       </c>
       <c r="AD3" t="n">
-        <v>911231.1183138299</v>
+        <v>988010.9483484904</v>
       </c>
       <c r="AE3" t="n">
-        <v>1246786.616756701</v>
+        <v>1351840.167497162</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.476218963746675e-06</v>
+        <v>2.661972124005906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.96744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1127795.051929448</v>
+        <v>1222822.439230823</v>
       </c>
     </row>
     <row r="4">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.03443583999</v>
+        <v>845.2914603680681</v>
       </c>
       <c r="AB4" t="n">
-        <v>1064.541039573086</v>
+        <v>1156.565067702912</v>
       </c>
       <c r="AC4" t="n">
-        <v>962.9427368489625</v>
+        <v>1046.184120890613</v>
       </c>
       <c r="AD4" t="n">
-        <v>778034.43583999</v>
+        <v>845291.4603680681</v>
       </c>
       <c r="AE4" t="n">
-        <v>1064541.039573086</v>
+        <v>1156565.067702912</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.598091789431534e-06</v>
+        <v>2.881737668694165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.82595486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>962942.7368489625</v>
+        <v>1046184.120890613</v>
       </c>
     </row>
     <row r="5">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>710.1682990172204</v>
+        <v>777.254731344706</v>
       </c>
       <c r="AB5" t="n">
-        <v>971.6835971295244</v>
+        <v>1063.474213484503</v>
       </c>
       <c r="AC5" t="n">
-        <v>878.947478385976</v>
+        <v>961.9777271449749</v>
       </c>
       <c r="AD5" t="n">
-        <v>710168.2990172204</v>
+        <v>777254.731344706</v>
       </c>
       <c r="AE5" t="n">
-        <v>971683.5971295245</v>
+        <v>1063474.213484504</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65938455556544e-06</v>
+        <v>2.992263030350248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.31597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>878947.4783859759</v>
+        <v>961977.7271449749</v>
       </c>
     </row>
     <row r="6">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>679.9847864128159</v>
+        <v>737.633754088291</v>
       </c>
       <c r="AB6" t="n">
-        <v>930.3851835815822</v>
+        <v>1009.263044448124</v>
       </c>
       <c r="AC6" t="n">
-        <v>841.5905274643618</v>
+        <v>912.940395995574</v>
       </c>
       <c r="AD6" t="n">
-        <v>679984.7864128159</v>
+        <v>737633.754088291</v>
       </c>
       <c r="AE6" t="n">
-        <v>930385.1835815822</v>
+        <v>1009263.044448124</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.682598427124461e-06</v>
+        <v>3.034123134100393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.13151041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>841590.5274643617</v>
+        <v>912940.3959955741</v>
       </c>
     </row>
     <row r="7">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>683.3441153735641</v>
+        <v>740.9930830490391</v>
       </c>
       <c r="AB7" t="n">
-        <v>934.981565668812</v>
+        <v>1013.859426535354</v>
       </c>
       <c r="AC7" t="n">
-        <v>845.748237296249</v>
+        <v>917.0981058274613</v>
       </c>
       <c r="AD7" t="n">
-        <v>683344.1153735642</v>
+        <v>740993.0830490391</v>
       </c>
       <c r="AE7" t="n">
-        <v>934981.565668812</v>
+        <v>1013859.426535354</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.682700242350596e-06</v>
+        <v>3.034306731046665e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.13151041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>845748.237296249</v>
+        <v>917098.1058274612</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1029.740463808041</v>
+        <v>1112.835356102735</v>
       </c>
       <c r="AB2" t="n">
-        <v>1408.936331525211</v>
+        <v>1522.630429050734</v>
       </c>
       <c r="AC2" t="n">
-        <v>1274.469425499005</v>
+        <v>1377.312717927361</v>
       </c>
       <c r="AD2" t="n">
-        <v>1029740.463808041</v>
+        <v>1112835.356102735</v>
       </c>
       <c r="AE2" t="n">
-        <v>1408936.331525211</v>
+        <v>1522630.429050734</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338766538704959e-06</v>
+        <v>2.497710434221626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19184027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1274469.425499005</v>
+        <v>1377312.717927361</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>714.3805442083237</v>
+        <v>779.0573363586367</v>
       </c>
       <c r="AB3" t="n">
-        <v>977.4469768311346</v>
+        <v>1065.940617189884</v>
       </c>
       <c r="AC3" t="n">
-        <v>884.1608092178185</v>
+        <v>964.2087407423332</v>
       </c>
       <c r="AD3" t="n">
-        <v>714380.5442083237</v>
+        <v>779057.3363586367</v>
       </c>
       <c r="AE3" t="n">
-        <v>977446.9768311346</v>
+        <v>1065940.617189884</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.630107082301768e-06</v>
+        <v>3.041258763684259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11892361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>884160.8092178185</v>
+        <v>964208.7407423332</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.1077880618708</v>
+        <v>687.6992393576123</v>
       </c>
       <c r="AB4" t="n">
-        <v>852.5635652017451</v>
+        <v>940.9404384382967</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.1960951193686</v>
+        <v>851.1384036119447</v>
       </c>
       <c r="AD4" t="n">
-        <v>623107.7880618708</v>
+        <v>687699.2393576123</v>
       </c>
       <c r="AE4" t="n">
-        <v>852563.565201745</v>
+        <v>940940.4384382967</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.719089505336979e-06</v>
+        <v>3.207271522482639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38975694444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>771196.0951193686</v>
+        <v>851138.4036119446</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>621.235162825702</v>
+        <v>685.8266141214435</v>
       </c>
       <c r="AB5" t="n">
-        <v>850.0013567392239</v>
+        <v>938.3782299757756</v>
       </c>
       <c r="AC5" t="n">
-        <v>768.8784202364284</v>
+        <v>848.8207287290045</v>
       </c>
       <c r="AD5" t="n">
-        <v>621235.162825702</v>
+        <v>685826.6141214435</v>
       </c>
       <c r="AE5" t="n">
-        <v>850001.3567392238</v>
+        <v>938378.2299757756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.724286333380751e-06</v>
+        <v>3.216967142483974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.34852430555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>768878.4202364284</v>
+        <v>848820.7287290045</v>
       </c>
     </row>
   </sheetData>
@@ -27412,28 +27412,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.5927731829729</v>
+        <v>865.123495292264</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.514446059178</v>
+        <v>1183.700132813828</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.0597340142775</v>
+        <v>1070.729453471646</v>
       </c>
       <c r="AD2" t="n">
-        <v>784592.7731829729</v>
+        <v>865123.495292264</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073514.446059179</v>
+        <v>1183700.132813828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50184514992611e-06</v>
+        <v>2.88810391714436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>971059.7340142776</v>
+        <v>1070729.453471646</v>
       </c>
     </row>
     <row r="3">
@@ -27518,28 +27518,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.4495147234712</v>
+        <v>641.2172732489203</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.4601454361756</v>
+        <v>877.3417617687662</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.9242999770369</v>
+        <v>793.6094953824506</v>
       </c>
       <c r="AD3" t="n">
-        <v>578449.5147234712</v>
+        <v>641217.2732489202</v>
       </c>
       <c r="AE3" t="n">
-        <v>791460.1454361756</v>
+        <v>877341.7617687662</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.739042112022702e-06</v>
+        <v>3.34424247137521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>715924.2999770369</v>
+        <v>793609.4953824506</v>
       </c>
     </row>
     <row r="4">
@@ -27624,28 +27624,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>576.0459189928918</v>
+        <v>638.8136775183407</v>
       </c>
       <c r="AB4" t="n">
-        <v>788.1714397184368</v>
+        <v>874.0530560510276</v>
       </c>
       <c r="AC4" t="n">
-        <v>712.9494637172717</v>
+        <v>790.6346591226855</v>
       </c>
       <c r="AD4" t="n">
-        <v>576045.9189928918</v>
+        <v>638813.6775183406</v>
       </c>
       <c r="AE4" t="n">
-        <v>788171.4397184368</v>
+        <v>874053.0560510276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.746831651481009e-06</v>
+        <v>3.35922204461776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.63064236111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>712949.4637172717</v>
+        <v>790634.6591226856</v>
       </c>
     </row>
   </sheetData>
@@ -27921,28 +27921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.3220098340648</v>
+        <v>565.4532029803144</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.82615827046</v>
+        <v>773.6780183523796</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.75362667415</v>
+        <v>699.8392741447464</v>
       </c>
       <c r="AD2" t="n">
-        <v>498322.0098340648</v>
+        <v>565453.2029803144</v>
       </c>
       <c r="AE2" t="n">
-        <v>681826.1582704601</v>
+        <v>773678.0183523796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.72533533312386e-06</v>
+        <v>3.558675487224435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>616753.62667415</v>
+        <v>699839.2741447464</v>
       </c>
     </row>
     <row r="3">
@@ -28027,28 +28027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.2034151104495</v>
+        <v>571.3346082566991</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.8733564388979</v>
+        <v>781.7252165208173</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.0328115437057</v>
+        <v>707.1184590143022</v>
       </c>
       <c r="AD3" t="n">
-        <v>504203.4151104495</v>
+        <v>571334.6082566991</v>
       </c>
       <c r="AE3" t="n">
-        <v>689873.3564388979</v>
+        <v>781725.2165208173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.72521757886962e-06</v>
+        <v>3.558432607379552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>624032.8115437058</v>
+        <v>707118.4590143021</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1900.921552004848</v>
+        <v>2009.934037676909</v>
       </c>
       <c r="AB2" t="n">
-        <v>2600.924730193173</v>
+        <v>2750.080422381131</v>
       </c>
       <c r="AC2" t="n">
-        <v>2352.696124364321</v>
+        <v>2487.616606631191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1900921.552004848</v>
+        <v>2009934.037676909</v>
       </c>
       <c r="AE2" t="n">
-        <v>2600924.730193173</v>
+        <v>2750080.422381131</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.821074342148878e-07</v>
+        <v>1.725524019961753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75998263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2352696.124364321</v>
+        <v>2487616.606631191</v>
       </c>
     </row>
     <row r="3">
@@ -28430,28 +28430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1114.057229249679</v>
+        <v>1193.339037011178</v>
       </c>
       <c r="AB3" t="n">
-        <v>1524.302249795623</v>
+        <v>1632.779116841411</v>
       </c>
       <c r="AC3" t="n">
-        <v>1378.824982446772</v>
+        <v>1476.948969549949</v>
       </c>
       <c r="AD3" t="n">
-        <v>1114057.229249679</v>
+        <v>1193339.037011178</v>
       </c>
       <c r="AE3" t="n">
-        <v>1524302.249795623</v>
+        <v>1632779.116841411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.350803938145555e-06</v>
+        <v>2.373309233110936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.8203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1378824.982446772</v>
+        <v>1476948.96954995</v>
       </c>
     </row>
     <row r="4">
@@ -28536,28 +28536,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>944.658834576766</v>
+        <v>1013.945165022057</v>
       </c>
       <c r="AB4" t="n">
-        <v>1292.523892874411</v>
+        <v>1387.324506886827</v>
       </c>
       <c r="AC4" t="n">
-        <v>1169.167226607154</v>
+        <v>1254.920203071722</v>
       </c>
       <c r="AD4" t="n">
-        <v>944658.834576766</v>
+        <v>1013945.165022057</v>
       </c>
       <c r="AE4" t="n">
-        <v>1292523.892874411</v>
+        <v>1387324.506886827</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485224538536944e-06</v>
+        <v>2.609480925404909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.39019097222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1169167.226607154</v>
+        <v>1254920.203071722</v>
       </c>
     </row>
     <row r="5">
@@ -28642,28 +28642,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>856.1651980211676</v>
+        <v>925.5367798124795</v>
       </c>
       <c r="AB5" t="n">
-        <v>1171.442995275331</v>
+        <v>1266.360253940396</v>
       </c>
       <c r="AC5" t="n">
-        <v>1059.642119936823</v>
+        <v>1145.500608652103</v>
       </c>
       <c r="AD5" t="n">
-        <v>856165.1980211677</v>
+        <v>925536.7798124795</v>
       </c>
       <c r="AE5" t="n">
-        <v>1171442.995275331</v>
+        <v>1266360.253940396</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555241422696854e-06</v>
+        <v>2.732497828863527e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.74131944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1059642.119936823</v>
+        <v>1145500.608652103</v>
       </c>
     </row>
     <row r="6">
@@ -28748,28 +28748,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>800.9703926387072</v>
+        <v>870.1713822294266</v>
       </c>
       <c r="AB6" t="n">
-        <v>1095.923027528091</v>
+        <v>1190.606874418309</v>
       </c>
       <c r="AC6" t="n">
-        <v>991.3296719184386</v>
+        <v>1076.977025351068</v>
       </c>
       <c r="AD6" t="n">
-        <v>800970.3926387072</v>
+        <v>870171.3822294266</v>
       </c>
       <c r="AE6" t="n">
-        <v>1095923.027528091</v>
+        <v>1190606.874418308</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>2.81070266763047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>991329.6719184386</v>
+        <v>1076977.025351068</v>
       </c>
     </row>
     <row r="7">
@@ -28854,28 +28854,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>758.4281294655085</v>
+        <v>817.889574795184</v>
       </c>
       <c r="AB7" t="n">
-        <v>1037.714826222329</v>
+        <v>1119.072598976219</v>
       </c>
       <c r="AC7" t="n">
-        <v>938.6767796495755</v>
+        <v>1012.269880758185</v>
       </c>
       <c r="AD7" t="n">
-        <v>758428.1294655085</v>
+        <v>817889.574795184</v>
       </c>
       <c r="AE7" t="n">
-        <v>1037714.826222329</v>
+        <v>1119072.598976219</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.628803465548405e-06</v>
+        <v>2.861743436294735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.12065972222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>938676.7796495755</v>
+        <v>1012269.880758185</v>
       </c>
     </row>
     <row r="8">
@@ -28960,28 +28960,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>739.6788742311148</v>
+        <v>799.1403195607903</v>
       </c>
       <c r="AB8" t="n">
-        <v>1012.061268051869</v>
+        <v>1093.419040805759</v>
       </c>
       <c r="AC8" t="n">
-        <v>915.4715610659088</v>
+        <v>989.0646621745185</v>
       </c>
       <c r="AD8" t="n">
-        <v>739678.8742311149</v>
+        <v>799140.3195607903</v>
       </c>
       <c r="AE8" t="n">
-        <v>1012061.268051869</v>
+        <v>1093419.040805759</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638355698689771e-06</v>
+        <v>2.878526333109764e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.04470486111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>915471.5610659088</v>
+        <v>989064.6621745185</v>
       </c>
     </row>
     <row r="9">
@@ -29066,28 +29066,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>742.9112101612151</v>
+        <v>802.3726554908903</v>
       </c>
       <c r="AB9" t="n">
-        <v>1016.483892672029</v>
+        <v>1097.841665425919</v>
       </c>
       <c r="AC9" t="n">
-        <v>919.4720965995133</v>
+        <v>993.0651977081229</v>
       </c>
       <c r="AD9" t="n">
-        <v>742911.210161215</v>
+        <v>802372.6554908904</v>
       </c>
       <c r="AE9" t="n">
-        <v>1016483.892672029</v>
+        <v>1097841.665425919</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640325231296238e-06</v>
+        <v>2.881986724205646e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.02734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>919472.0965995133</v>
+        <v>993065.1977081229</v>
       </c>
     </row>
   </sheetData>
@@ -29363,28 +29363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2753.774159086697</v>
+        <v>2887.126947128099</v>
       </c>
       <c r="AB2" t="n">
-        <v>3767.835292404344</v>
+        <v>3950.294460112401</v>
       </c>
       <c r="AC2" t="n">
-        <v>3408.238380287178</v>
+        <v>3573.28390111222</v>
       </c>
       <c r="AD2" t="n">
-        <v>2753774.159086697</v>
+        <v>2887126.947128099</v>
       </c>
       <c r="AE2" t="n">
-        <v>3767835.292404344</v>
+        <v>3950294.460112401</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.015798783299035e-07</v>
+        <v>1.370612261962292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.69227430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3408238.380287178</v>
+        <v>3573283.90111222</v>
       </c>
     </row>
     <row r="3">
@@ -29469,28 +29469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1417.881525490946</v>
+        <v>1499.944869178822</v>
       </c>
       <c r="AB3" t="n">
-        <v>1940.008055694883</v>
+        <v>2052.290742907844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1754.85640967777</v>
+        <v>1856.422994812867</v>
       </c>
       <c r="AD3" t="n">
-        <v>1417881.525490946</v>
+        <v>1499944.869178822</v>
       </c>
       <c r="AE3" t="n">
-        <v>1940008.055694883</v>
+        <v>2052290.742907844</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.204220274180949e-06</v>
+        <v>2.059082467657332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.10069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1754856.40967777</v>
+        <v>1856422.994812867</v>
       </c>
     </row>
     <row r="4">
@@ -29575,28 +29575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1161.935633018246</v>
+        <v>1233.741069933706</v>
       </c>
       <c r="AB4" t="n">
-        <v>1589.811594077874</v>
+        <v>1688.058960697909</v>
       </c>
       <c r="AC4" t="n">
-        <v>1438.082206853668</v>
+        <v>1526.952982694531</v>
       </c>
       <c r="AD4" t="n">
-        <v>1161935.633018246</v>
+        <v>1233741.069933706</v>
       </c>
       <c r="AE4" t="n">
-        <v>1589811.594077874</v>
+        <v>1688058.960697909</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358519893236758e-06</v>
+        <v>2.32291762072359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15842013888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1438082.206853668</v>
+        <v>1526952.982694531</v>
       </c>
     </row>
     <row r="5">
@@ -29681,28 +29681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1048.8673070024</v>
+        <v>1120.587403063289</v>
       </c>
       <c r="AB5" t="n">
-        <v>1435.106522200502</v>
+        <v>1533.237121698339</v>
       </c>
       <c r="AC5" t="n">
-        <v>1298.14196990634</v>
+        <v>1386.907122715265</v>
       </c>
       <c r="AD5" t="n">
-        <v>1048867.3070024</v>
+        <v>1120587.403063289</v>
       </c>
       <c r="AE5" t="n">
-        <v>1435106.522200502</v>
+        <v>1533237.121698339</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.460514305717556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.31206597222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1298141.96990634</v>
+        <v>1386907.122715265</v>
       </c>
     </row>
     <row r="6">
@@ -29787,28 +29787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>975.9343810848724</v>
+        <v>1047.739728491782</v>
       </c>
       <c r="AB6" t="n">
-        <v>1335.316475386534</v>
+        <v>1433.56371953702</v>
       </c>
       <c r="AC6" t="n">
-        <v>1207.875745104086</v>
+        <v>1296.746410163723</v>
       </c>
       <c r="AD6" t="n">
-        <v>975934.3810848724</v>
+        <v>1047739.728491782</v>
       </c>
       <c r="AE6" t="n">
-        <v>1335316.475386534</v>
+        <v>1433563.71953702</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488336546907329e-06</v>
+        <v>2.544889631421402e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.83680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1207875.745104086</v>
+        <v>1296746.410163723</v>
       </c>
     </row>
     <row r="7">
@@ -29893,28 +29893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>928.5945153910368</v>
+        <v>1000.399862797946</v>
       </c>
       <c r="AB7" t="n">
-        <v>1270.543982656752</v>
+        <v>1368.791226807238</v>
       </c>
       <c r="AC7" t="n">
-        <v>1149.28504817167</v>
+        <v>1238.155713231307</v>
       </c>
       <c r="AD7" t="n">
-        <v>928594.5153910368</v>
+        <v>1000399.862797946</v>
       </c>
       <c r="AE7" t="n">
-        <v>1270543.982656752</v>
+        <v>1368791.226807238</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523447776335773e-06</v>
+        <v>2.604925920864524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.51779513888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1149285.04817167</v>
+        <v>1238155.713231307</v>
       </c>
     </row>
     <row r="8">
@@ -29999,28 +29999,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>893.4590205912771</v>
+        <v>965.0937757975938</v>
       </c>
       <c r="AB8" t="n">
-        <v>1222.470048603088</v>
+        <v>1320.483880978727</v>
       </c>
       <c r="AC8" t="n">
-        <v>1105.799222911898</v>
+        <v>1194.458752688884</v>
       </c>
       <c r="AD8" t="n">
-        <v>893459.020591277</v>
+        <v>965093.7757975939</v>
       </c>
       <c r="AE8" t="n">
-        <v>1222470.048603088</v>
+        <v>1320483.880978727</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548500113009041e-06</v>
+        <v>2.6477626246834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1105799.222911898</v>
+        <v>1194458.752688884</v>
       </c>
     </row>
     <row r="9">
@@ -30105,28 +30105,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>859.1574414089813</v>
+        <v>920.7049715520258</v>
       </c>
       <c r="AB9" t="n">
-        <v>1175.537114687</v>
+        <v>1259.749160714108</v>
       </c>
       <c r="AC9" t="n">
-        <v>1063.345502337974</v>
+        <v>1139.520468884604</v>
       </c>
       <c r="AD9" t="n">
-        <v>859157.4414089813</v>
+        <v>920704.9715520258</v>
       </c>
       <c r="AE9" t="n">
-        <v>1175537.114686999</v>
+        <v>1259749.160714108</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568333212875378e-06</v>
+        <v>2.681675015206677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.13151041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1063345.502337974</v>
+        <v>1139520.468884604</v>
       </c>
     </row>
     <row r="10">
@@ -30211,28 +30211,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>831.0181285302837</v>
+        <v>892.5656586733282</v>
       </c>
       <c r="AB10" t="n">
-        <v>1137.035665387496</v>
+        <v>1221.247711414604</v>
       </c>
       <c r="AC10" t="n">
-        <v>1028.518577322492</v>
+        <v>1104.693543869122</v>
       </c>
       <c r="AD10" t="n">
-        <v>831018.1285302837</v>
+        <v>892565.6586733282</v>
       </c>
       <c r="AE10" t="n">
-        <v>1137035.665387496</v>
+        <v>1221247.711414604</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.582852180720113e-06</v>
+        <v>2.706500832192616e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.00998263888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1028518.577322492</v>
+        <v>1104693.543869122</v>
       </c>
     </row>
     <row r="11">
@@ -30317,28 +30317,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>811.0729257600121</v>
+        <v>882.7929323123493</v>
       </c>
       <c r="AB11" t="n">
-        <v>1109.745759036966</v>
+        <v>1207.876236065254</v>
       </c>
       <c r="AC11" t="n">
-        <v>1003.833181332432</v>
+        <v>1092.598223360131</v>
       </c>
       <c r="AD11" t="n">
-        <v>811072.9257600121</v>
+        <v>882792.9323123493</v>
       </c>
       <c r="AE11" t="n">
-        <v>1109745.759036966</v>
+        <v>1207876.236065254</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.587122465380329e-06</v>
+        <v>2.713802543070833e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.97526041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1003833.181332432</v>
+        <v>1092598.223360131</v>
       </c>
     </row>
     <row r="12">
@@ -30423,28 +30423,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>808.979108390441</v>
+        <v>880.6991149427782</v>
       </c>
       <c r="AB12" t="n">
-        <v>1106.880905739216</v>
+        <v>1205.011382767504</v>
       </c>
       <c r="AC12" t="n">
-        <v>1001.241745612572</v>
+        <v>1090.006787640271</v>
       </c>
       <c r="AD12" t="n">
-        <v>808979.1083904409</v>
+        <v>880699.1149427783</v>
       </c>
       <c r="AE12" t="n">
-        <v>1106880.905739216</v>
+        <v>1205011.382767504</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.589494845747115e-06</v>
+        <v>2.717859049114288e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1001241.745612572</v>
+        <v>1090006.787640271</v>
       </c>
     </row>
   </sheetData>
@@ -30720,28 +30720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.7305719537129</v>
+        <v>544.7487483416703</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.3885327662098</v>
+        <v>745.3492700997139</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.7437324460935</v>
+        <v>674.2141818656672</v>
       </c>
       <c r="AD2" t="n">
-        <v>479730.5719537128</v>
+        <v>544748.7483416703</v>
       </c>
       <c r="AE2" t="n">
-        <v>656388.5327662098</v>
+        <v>745349.2700997138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638559731252191e-06</v>
+        <v>3.512188209056126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.14800347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>593743.7324460936</v>
+        <v>674214.1818656672</v>
       </c>
     </row>
   </sheetData>
@@ -31017,28 +31017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1151.055105214408</v>
+        <v>1244.666863256059</v>
       </c>
       <c r="AB2" t="n">
-        <v>1574.924375921655</v>
+        <v>1703.008113133536</v>
       </c>
       <c r="AC2" t="n">
-        <v>1424.615803903936</v>
+        <v>1540.475409002969</v>
       </c>
       <c r="AD2" t="n">
-        <v>1151055.105214408</v>
+        <v>1244666.863256059</v>
       </c>
       <c r="AE2" t="n">
-        <v>1574924.375921655</v>
+        <v>1703008.113133536</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266996994894282e-06</v>
+        <v>2.334356485272255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.90147569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1424615.803903936</v>
+        <v>1540475.409002969</v>
       </c>
     </row>
     <row r="3">
@@ -31123,28 +31123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>780.524955697085</v>
+        <v>846.0874121766202</v>
       </c>
       <c r="AB3" t="n">
-        <v>1067.948678715544</v>
+        <v>1157.654124082288</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.0251556943166</v>
+        <v>1047.169239257641</v>
       </c>
       <c r="AD3" t="n">
-        <v>780524.955697085</v>
+        <v>846087.4121766202</v>
       </c>
       <c r="AE3" t="n">
-        <v>1067948.678715544</v>
+        <v>1157654.124082288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574679841794287e-06</v>
+        <v>2.901241372894256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40321180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>966025.1556943166</v>
+        <v>1047169.239257642</v>
       </c>
     </row>
     <row r="4">
@@ -31229,28 +31229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.1328428025474</v>
+        <v>733.6099584275111</v>
       </c>
       <c r="AB4" t="n">
-        <v>914.168831463163</v>
+        <v>1003.757509707709</v>
       </c>
       <c r="AC4" t="n">
-        <v>826.9218412323312</v>
+        <v>907.9603017637174</v>
       </c>
       <c r="AD4" t="n">
-        <v>668132.8428025474</v>
+        <v>733609.958427511</v>
       </c>
       <c r="AE4" t="n">
-        <v>914168.831463163</v>
+        <v>1003757.509707709</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.683685687350233e-06</v>
+        <v>3.102077289263056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>826921.8412323312</v>
+        <v>907960.3017637174</v>
       </c>
     </row>
     <row r="5">
@@ -31335,28 +31335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>641.4170016335345</v>
+        <v>706.8941172584981</v>
       </c>
       <c r="AB5" t="n">
-        <v>877.61503895599</v>
+        <v>967.2037172005361</v>
       </c>
       <c r="AC5" t="n">
-        <v>793.8566913784729</v>
+        <v>874.895151909859</v>
       </c>
       <c r="AD5" t="n">
-        <v>641417.0016335344</v>
+        <v>706894.1172584981</v>
       </c>
       <c r="AE5" t="n">
-        <v>877615.03895599</v>
+        <v>967203.717200536</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.71002267016912e-06</v>
+        <v>3.150601403285048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.26388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>793856.6913784728</v>
+        <v>874895.151909859</v>
       </c>
     </row>
     <row r="6">
@@ -31441,28 +31441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>644.9497568369316</v>
+        <v>710.4268724618951</v>
       </c>
       <c r="AB6" t="n">
-        <v>882.4487104794379</v>
+        <v>972.0373887239838</v>
       </c>
       <c r="AC6" t="n">
-        <v>798.2290440758233</v>
+        <v>879.2675046072096</v>
       </c>
       <c r="AD6" t="n">
-        <v>644949.7568369316</v>
+        <v>710426.8724618951</v>
       </c>
       <c r="AE6" t="n">
-        <v>882448.7104794378</v>
+        <v>972037.3887239838</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.710231693842285e-06</v>
+        <v>3.150986515301096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.26171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>798229.0440758233</v>
+        <v>879267.5046072096</v>
       </c>
     </row>
   </sheetData>
@@ -31738,28 +31738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1577.351473897553</v>
+        <v>1674.403864960557</v>
       </c>
       <c r="AB2" t="n">
-        <v>2158.201874422398</v>
+        <v>2290.993237524109</v>
       </c>
       <c r="AC2" t="n">
-        <v>1952.226116582879</v>
+        <v>2072.344058364011</v>
       </c>
       <c r="AD2" t="n">
-        <v>1577351.473897554</v>
+        <v>1674403.864960557</v>
       </c>
       <c r="AE2" t="n">
-        <v>2158201.874422398</v>
+        <v>2290993.237524109</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.085817366262026e-06</v>
+        <v>1.939733483742702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.11067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1952226.116582879</v>
+        <v>2072344.058364011</v>
       </c>
     </row>
     <row r="3">
@@ -31844,28 +31844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.8475578204207</v>
+        <v>1062.387079547047</v>
       </c>
       <c r="AB3" t="n">
-        <v>1347.511877017716</v>
+        <v>1453.604871446357</v>
       </c>
       <c r="AC3" t="n">
-        <v>1218.907234719942</v>
+        <v>1314.874862662767</v>
       </c>
       <c r="AD3" t="n">
-        <v>984847.5578204207</v>
+        <v>1062387.079547047</v>
       </c>
       <c r="AE3" t="n">
-        <v>1347511.877017716</v>
+        <v>1453604.871446357</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.431858133806749e-06</v>
+        <v>2.557910061501126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1218907.234719942</v>
+        <v>1314874.862662767</v>
       </c>
     </row>
     <row r="4">
@@ -31950,28 +31950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>841.965253941278</v>
+        <v>909.8763522815741</v>
       </c>
       <c r="AB4" t="n">
-        <v>1152.014005327906</v>
+        <v>1244.932966103309</v>
       </c>
       <c r="AC4" t="n">
-        <v>1042.067405521222</v>
+        <v>1126.118311092801</v>
       </c>
       <c r="AD4" t="n">
-        <v>841965.253941278</v>
+        <v>909876.352281574</v>
       </c>
       <c r="AE4" t="n">
-        <v>1152014.005327906</v>
+        <v>1244932.966103309</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.556529407720071e-06</v>
+        <v>2.780626194052067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1042067.405521222</v>
+        <v>1126118.311092801</v>
       </c>
     </row>
     <row r="5">
@@ -32056,28 +32056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>758.8860257317633</v>
+        <v>826.7117832174879</v>
       </c>
       <c r="AB5" t="n">
-        <v>1038.341340094777</v>
+        <v>1131.143533747982</v>
       </c>
       <c r="AC5" t="n">
-        <v>939.2434999173544</v>
+        <v>1023.188782456994</v>
       </c>
       <c r="AD5" t="n">
-        <v>758886.0257317633</v>
+        <v>826711.7832174879</v>
       </c>
       <c r="AE5" t="n">
-        <v>1038341.340094777</v>
+        <v>1131143.533747982</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623644613289228e-06</v>
+        <v>2.900522610849063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44835069444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>939243.4999173543</v>
+        <v>1023188.782456994</v>
       </c>
     </row>
     <row r="6">
@@ -32162,28 +32162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.1872519541239</v>
+        <v>769.4699269080892</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.077773490827</v>
+        <v>1052.822700612991</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.2085965120943</v>
+        <v>952.3427797124276</v>
       </c>
       <c r="AD6" t="n">
-        <v>711187.2519541238</v>
+        <v>769469.9269080892</v>
       </c>
       <c r="AE6" t="n">
-        <v>973077.7734908269</v>
+        <v>1052822.700612991</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.660371824732619e-06</v>
+        <v>2.96613309380394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>880208.5965120944</v>
+        <v>952342.7797124276</v>
       </c>
     </row>
     <row r="7">
@@ -32268,28 +32268,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>701.8475135242567</v>
+        <v>760.130188478222</v>
       </c>
       <c r="AB7" t="n">
-        <v>960.2987313309035</v>
+        <v>1040.043658453068</v>
       </c>
       <c r="AC7" t="n">
-        <v>868.6491682004156</v>
+        <v>940.7833514007489</v>
       </c>
       <c r="AD7" t="n">
-        <v>701847.5135242566</v>
+        <v>760130.188478222</v>
       </c>
       <c r="AE7" t="n">
-        <v>960298.7313309035</v>
+        <v>1040043.658453068</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>2.979974209386203e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.09027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>868649.1682004156</v>
+        <v>940783.3514007488</v>
       </c>
     </row>
     <row r="8">
@@ -32374,28 +32374,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>705.4502095836347</v>
+        <v>763.7328845375999</v>
       </c>
       <c r="AB8" t="n">
-        <v>965.2280990190773</v>
+        <v>1044.973026141242</v>
       </c>
       <c r="AC8" t="n">
-        <v>873.108083954841</v>
+        <v>945.2422671551743</v>
       </c>
       <c r="AD8" t="n">
-        <v>705450.2095836346</v>
+        <v>763732.8845376</v>
       </c>
       <c r="AE8" t="n">
-        <v>965228.0990190773</v>
+        <v>1044973.026141242</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>2.979974209386203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.09027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>873108.083954841</v>
+        <v>945242.2671551743</v>
       </c>
     </row>
   </sheetData>
